--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_6_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_6_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.172184758169159e-05</v>
+        <v>0.01154131105659129</v>
       </c>
       <c r="I2" t="n">
-        <v>1.172184758169159e-05</v>
+        <v>0.01154131105659129</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>58.79595650190065</v>
+        <v>34.40258958900493</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[34.97195881126096, 82.61995419254033]</t>
+          <t>[7.045151402152655, 61.76002777585721]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.014233039997592e-05</v>
+        <v>0.01487262645182708</v>
       </c>
       <c r="O2" t="n">
-        <v>1.014233039997592e-05</v>
+        <v>0.01487262645182708</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1635528346628865, 2.169868799776734]</t>
+          <t>[0.6603948521059628, 2.8239741771007356]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.131067738415538e-08</v>
+        <v>0.002227418392017011</v>
       </c>
       <c r="S2" t="n">
-        <v>3.131067738415538e-08</v>
+        <v>0.002227418392017011</v>
       </c>
       <c r="T2" t="n">
-        <v>70.72683805791095</v>
+        <v>63.74209389249454</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[55.331562506444335, 86.12211360937758]</t>
+          <t>[48.12771180716884, 79.35647597782022]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.587752482938413e-12</v>
+        <v>1.64118052481399e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>5.587752482938413e-12</v>
+        <v>1.64118052481399e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.66302302302326</v>
+        <v>17.38870870870894</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.73789789789811</v>
+        <v>13.24624624624642</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.58814814814841</v>
+        <v>21.53117117117146</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002536029320150401</v>
+        <v>2.980690203158165e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002536029320150401</v>
+        <v>2.980690203158165e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>38.10705344145397</v>
+        <v>50.9131575289626</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[13.616946574746855, 62.59716030816109]</t>
+          <t>[25.743428144360763, 76.08288691356444]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.003032779684345233</v>
+        <v>0.000185079666479071</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003032779684345233</v>
+        <v>0.000185079666479071</v>
       </c>
       <c r="P3" t="n">
-        <v>1.641552918091964</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.798763297309117, 2.4843425388748113]</t>
+          <t>[1.3145002294299646, 2.446605690183042]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0002961645607042485</v>
+        <v>2.928057796225403e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002961645607042485</v>
+        <v>2.928057796225403e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>55.62508933287653</v>
+        <v>55.5529124472872</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[40.95645690549155, 70.29372176026152]</t>
+          <t>[41.47637531924923, 69.62944957532517]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.166731600221738e-09</v>
+        <v>4.094884431538048e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.166731600221738e-09</v>
+        <v>4.094884431538048e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>17.75927927927951</v>
+        <v>16.85885885885908</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.53469469469489</v>
+        <v>14.69129129129149</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.98386386386414</v>
+        <v>19.02642642642668</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.918915780138811e-06</v>
+        <v>1.443281539614816e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>4.918915780138811e-06</v>
+        <v>1.443281539614816e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>67.59171883137226</v>
+        <v>72.14891112961305</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[35.92321294613363, 99.26022471661089]</t>
+          <t>[44.12964868326438, 100.16817357596173]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9.092034444102559e-05</v>
+        <v>4.935592084365226e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>9.092034444102559e-05</v>
+        <v>4.935592084365226e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>2.006342455445734</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.50318447288881, 2.5095004380026573]</t>
+          <t>[1.0126054398958102, 1.9182898084982716]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.104625445615738e-10</v>
+        <v>5.302956984643004e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>3.104625445615738e-10</v>
+        <v>5.302956984643004e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>67.83501066374745</v>
+        <v>66.88581737867972</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.93584215167783, 84.73417917581708]</t>
+          <t>[49.9425769093872, 83.82905784797224]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.595070824895629e-10</v>
+        <v>4.063178682400803e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.595070824895629e-10</v>
+        <v>4.063178682400803e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>16.36356356356378</v>
+        <v>18.44840840840865</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.43843843843863</v>
+        <v>16.71435435435458</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.28868868868893</v>
+        <v>20.18246246246273</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.948832653566381e-05</v>
+        <v>0.0001481038694504111</v>
       </c>
       <c r="I5" t="n">
-        <v>3.948832653566381e-05</v>
+        <v>0.0001481038694504111</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>63.74801782204032</v>
+        <v>45.7419787446825</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[31.786282695097057, 95.70975294898358]</t>
+          <t>[18.671385928420918, 72.81257156094408]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0002211384298804742</v>
+        <v>0.001408302070097456</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002211384298804742</v>
+        <v>0.001408302070097456</v>
       </c>
       <c r="P5" t="n">
-        <v>1.817658211986887</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 2.421447791055196]</t>
+          <t>[1.4906055233248852, 2.6730267823336584]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.514814898546547e-07</v>
+        <v>7.438825111449887e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>2.514814898546547e-07</v>
+        <v>7.438825111449887e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>64.85585735274991</v>
+        <v>70.51444883764761</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.90892567397684, 82.80278903152298]</t>
+          <t>[56.49348003965956, 84.53541763563565]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.944247373155463e-09</v>
+        <v>3.47277762102749e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>3.944247373155463e-09</v>
+        <v>3.47277762102749e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>17.08548548548571</v>
+        <v>16.08816816816839</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.77533533533553</v>
+        <v>13.82426426426445</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.39563563563589</v>
+        <v>18.35207207207232</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.577285601132687e-07</v>
+        <v>0.002403776890409937</v>
       </c>
       <c r="I6" t="n">
-        <v>5.577285601132687e-07</v>
+        <v>0.002403776890409937</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>75.00500653839003</v>
+        <v>40.07718086422584</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[45.08006056358158, 104.92995251319849]</t>
+          <t>[11.739130519945476, 68.4152312085062]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7.833126253853351e-06</v>
+        <v>0.006600945703075567</v>
       </c>
       <c r="O6" t="n">
-        <v>7.833126253853351e-06</v>
+        <v>0.006600945703075567</v>
       </c>
       <c r="P6" t="n">
-        <v>1.918289808498272</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 2.345974093671657]</t>
+          <t>[1.1761317842268095, 2.7359215301532736]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.135136429297745e-11</v>
+        <v>7.747936831448143e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.135136429297745e-11</v>
+        <v>7.747936831448143e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>67.27868949315415</v>
+        <v>60.65681322393115</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.46505492010814, 84.09232406620015]</t>
+          <t>[45.296492791080425, 76.01713365678187]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.826234801744931e-10</v>
+        <v>4.027951305829447e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>2.826234801744931e-10</v>
+        <v>4.027951305829447e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>16.70046046046068</v>
+        <v>16.56984984985007</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.06410410410431</v>
+        <v>13.58342342342361</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.33681681681706</v>
+        <v>19.55627627627654</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0135840086052913</v>
+        <v>0.008876424348425949</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0135840086052913</v>
+        <v>0.008876424348425949</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>43.38116530165181</v>
+        <v>38.53085531658884</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[6.3673305737845, 80.39500002951911]</t>
+          <t>[9.436609599645351, 67.62510103353233]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02263984293193322</v>
+        <v>0.01058696106330403</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02263984293193322</v>
+        <v>0.01058696106330403</v>
       </c>
       <c r="P7" t="n">
-        <v>2.018921405009658</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.0126054398958102, 3.025237370123505]</t>
+          <t>[0.7484474990534249, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002054120585079922</v>
+        <v>0.00108164850391157</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002054120585079922</v>
+        <v>0.00108164850391157</v>
       </c>
       <c r="T7" t="n">
-        <v>74.36962808357427</v>
+        <v>63.19601008381183</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.303555903652956, 94.43570026349559]</t>
+          <t>[46.258352708982414, 80.13366745864124]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.095238205157557e-09</v>
+        <v>1.768253321543511e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.095238205157557e-09</v>
+        <v>1.768253321543511e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>16.31543543543565</v>
+        <v>17.2923723723726</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.46518518518535</v>
+        <v>13.39075075075093</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.16568568568595</v>
+        <v>21.19399399399428</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>7.369692619163537e-06</v>
+        <v>0.0002555789258631425</v>
       </c>
       <c r="I8" t="n">
-        <v>7.369692619163537e-06</v>
+        <v>0.0002555789258631425</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>55.82203433340194</v>
+        <v>52.45079795371622</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.09359413117143, 79.55047453563245]</t>
+          <t>[22.696670283644707, 82.20492562378773]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.187277149934275e-05</v>
+        <v>0.0009145416384501726</v>
       </c>
       <c r="O8" t="n">
-        <v>2.187277149934275e-05</v>
+        <v>0.0009145416384501726</v>
       </c>
       <c r="P8" t="n">
-        <v>1.779921363295118</v>
+        <v>1.86797401024258</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 2.295658295415965]</t>
+          <t>[1.2012896833546574, 2.5346583371305034]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.204147159761249e-08</v>
+        <v>1.053617329382917e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>1.204147159761249e-08</v>
+        <v>1.053617329382917e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>63.38332108420632</v>
+        <v>72.90769150794651</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.133457299925645, 77.633184868487]</t>
+          <t>[56.19566543995894, 89.61971757593409]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.449240727424694e-11</v>
+        <v>2.541522547971908e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>1.449240727424694e-11</v>
+        <v>2.541522547971908e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>17.2298698698701</v>
+        <v>16.90702702702725</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.25661661661682</v>
+        <v>14.35411411411431</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.20312312312338</v>
+        <v>19.4599399399402</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.04000000000032</v>
+        <v>24.06000000000032</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001243320525407543</v>
+        <v>0.008478360207880509</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001243320525407543</v>
+        <v>0.008478360207880509</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>40.94323072064221</v>
+        <v>36.86806211040219</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[16.752234467318033, 65.13422697396638]</t>
+          <t>[10.343068680225777, 63.39305554057861]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001385663707982321</v>
+        <v>0.007513049999859911</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001385663707982321</v>
+        <v>0.007513049999859911</v>
       </c>
       <c r="P9" t="n">
-        <v>1.540921321580579</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 2.333395144107734]</t>
+          <t>[0.4968685077749626, 2.4843425388748113]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0003023358568390311</v>
+        <v>0.004142907235937354</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0003023358568390311</v>
+        <v>0.004142907235937354</v>
       </c>
       <c r="T9" t="n">
-        <v>59.50652429942349</v>
+        <v>58.5557642117319</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.72580460069956, 74.28724399814742]</t>
+          <t>[42.4446932238383, 74.6668351996255]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.396052245501323e-10</v>
+        <v>3.421799510405776e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.396052245501323e-10</v>
+        <v>3.421799510405776e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>18.14430430430455</v>
+        <v>18.35207207207232</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.11223223223243</v>
+        <v>14.54678678678698</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.17637637637666</v>
+        <v>22.15735735735765</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.42000000000038</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001184024819811391</v>
+        <v>3.026979884523939e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001184024819811391</v>
+        <v>3.026979884523939e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>54.30197533089242</v>
+        <v>62.12718425500763</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[22.751057007442334, 85.8528936543425]</t>
+          <t>[40.4108260153195, 83.84354249469575]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001171335780285387</v>
+        <v>7.033627806851683e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001171335780285387</v>
+        <v>7.033627806851683e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>2.295658295415965</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.7421845146033483, 2.8491320762285817]</t>
+          <t>[1.2641844311742716, 2.0692372032653488]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.058695353606254e-10</v>
+        <v>1.110180836150221e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>1.058695353606254e-10</v>
+        <v>1.110180836150221e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>61.03845599867807</v>
+        <v>64.84678819150049</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.60678054951103, 77.4701314478451]</t>
+          <t>[51.33799010754187, 78.35558627545912]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.977839225730804e-09</v>
+        <v>1.479705247220409e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.977839225730804e-09</v>
+        <v>1.479705247220409e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>15.49777777777802</v>
+        <v>17.54546546546568</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.34666666666687</v>
+        <v>16.01561561561581</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.64888888888916</v>
+        <v>19.07531531531555</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.42000000000038</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001253556727283556</v>
+        <v>8.516838301619867e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001253556727283556</v>
+        <v>8.516838301619867e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>53.30339888465225</v>
+        <v>56.67997414294188</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[17.18705750725468, 89.41974026204983]</t>
+          <t>[26.589172788786186, 86.77077549709757]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.00472977931489349</v>
+        <v>0.0004401720840117029</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00472977931489349</v>
+        <v>0.0004401720840117029</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06923720326535</v>
+        <v>2.03150035457358</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.3648160276856567, 2.7736583788450426]</t>
+          <t>[1.440289725069194, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.154151043156418e-07</v>
+        <v>1.335536725655118e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>4.154151043156418e-07</v>
+        <v>1.335536725655118e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>72.52544732169798</v>
+        <v>69.34098858077625</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.15961207395178, 91.89128256944419]</t>
+          <t>[52.627932382301054, 86.05404477925146]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.608032151878547e-09</v>
+        <v>1.050348696907122e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.608032151878547e-09</v>
+        <v>1.050348696907122e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>16.37777777777803</v>
+        <v>16.15903903903924</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.64000000000021</v>
+        <v>13.91207207207224</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.11555555555585</v>
+        <v>18.40600600600623</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.42000000000038</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001869734812528501</v>
+        <v>7.735110634787823e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001869734812528501</v>
+        <v>7.735110634787823e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>47.63239097315751</v>
+        <v>60.17317521001116</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[17.0128793541749, 78.25190259214011]</t>
+          <t>[34.13379308744079, 86.21255733258153]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.003039537663266589</v>
+        <v>2.88045958924954e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003039537663266589</v>
+        <v>2.88045958924954e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.704447665911579</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 2.5220793875665803]</t>
+          <t>[1.2264475824825016, 2.257921446724195]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0001250273386619316</v>
+        <v>1.992856279997568e-08</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0001250273386619316</v>
+        <v>1.992856279997568e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>65.98694071981984</v>
+        <v>66.07866741677475</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.00884906832252, 83.96503237131716]</t>
+          <t>[50.7116875583847, 81.44564727516479]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.676489918584934e-09</v>
+        <v>3.842548501609144e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.676489918584934e-09</v>
+        <v>3.842548501609144e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>17.79555555555583</v>
+        <v>17.25861861861883</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.61777777777801</v>
+        <v>15.29849849849869</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.97333333333366</v>
+        <v>19.21873873873898</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.42000000000038</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004202083788496624</v>
+        <v>8.75058491495162e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.004202083788496624</v>
+        <v>8.75058491495162e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>39.50352520124139</v>
+        <v>44.61206575577513</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[9.264825382468025, 69.74222502001476]</t>
+          <t>[20.6573946650376, 68.56673684651265]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01161063753837333</v>
+        <v>0.0005014163589183163</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01161063753837333</v>
+        <v>0.0005014163589183163</v>
       </c>
       <c r="P13" t="n">
-        <v>2.270500396288118</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.5660792207084242, 2.974921571867812]</t>
+          <t>[1.3019212798660398, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.796429713988971e-08</v>
+        <v>9.200514750062894e-08</v>
       </c>
       <c r="S13" t="n">
-        <v>5.796429713988971e-08</v>
+        <v>9.200514750062894e-08</v>
       </c>
       <c r="T13" t="n">
-        <v>59.5549000903078</v>
+        <v>43.83313066997</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.52844615660358, 75.58135402401201]</t>
+          <t>[30.660360138930983, 57.00590120100901]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.959630235859322e-09</v>
+        <v>2.82234029480577e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.959630235859322e-09</v>
+        <v>2.82234029480577e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5955555555558</v>
+        <v>16.63711711711732</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.85777777777798</v>
+        <v>14.34234234234252</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.33333333333362</v>
+        <v>18.93189189189213</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.42000000000038</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.822078076019196e-05</v>
+        <v>0.001989435476664747</v>
       </c>
       <c r="I14" t="n">
-        <v>1.822078076019196e-05</v>
+        <v>0.001989435476664747</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>45.53536596132714</v>
+        <v>43.63788963053233</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[25.255994571003086, 65.8147373516512]</t>
+          <t>[13.686010315436178, 73.58976894562848]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.425565022980749e-05</v>
+        <v>0.005244394079811476</v>
       </c>
       <c r="O14" t="n">
-        <v>4.425565022980749e-05</v>
+        <v>0.005244394079811476</v>
       </c>
       <c r="P14" t="n">
-        <v>1.779921363295118</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.2767633807381955, 2.283079345852041]</t>
+          <t>[1.1635528346628874, 2.6730267823336575]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.654508055703445e-09</v>
+        <v>6.179636126368848e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>6.654508055703445e-09</v>
+        <v>6.179636126368848e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>68.22126360464269</v>
+        <v>66.47958242216373</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[55.88235804411217, 80.56016916517319]</t>
+          <t>[50.101926769583926, 82.85723807474353]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.620925615952729e-14</v>
+        <v>1.916562464288063e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>1.620925615952729e-14</v>
+        <v>1.916562464288063e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>17.50222222222249</v>
+        <v>16.58930930930951</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.54666666666691</v>
+        <v>13.72084084084101</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.45777777777807</v>
+        <v>19.45777777777801</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_6_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_6_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01154131105659129</v>
+        <v>6.841990556560873e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01154131105659129</v>
+        <v>6.841990556560873e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>34.40258958900493</v>
+        <v>63.26920709607927</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[7.045151402152655, 61.76002777585721]</t>
+          <t>[37.97916210157133, 88.55925209058721]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01487262645182708</v>
+        <v>8.084113255923953e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01487262645182708</v>
+        <v>8.084113255923953e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.742184514603349</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6603948521059628, 2.8239741771007356]</t>
+          <t>[1.0000264903318863, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.002227418392017011</v>
+        <v>2.072936433616945e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002227418392017011</v>
+        <v>2.072936433616945e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>63.74209389249454</v>
+        <v>79.81916200963187</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.12771180716884, 79.35647597782022]</t>
+          <t>[63.80660292601897, 95.83172109324477]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.64118052481399e-10</v>
+        <v>4.589661983800397e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>1.64118052481399e-10</v>
+        <v>4.589661983800397e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>17.38870870870894</v>
+        <v>18.16900900900923</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.24624624624642</v>
+        <v>16.30918918918939</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.53117117117146</v>
+        <v>20.02882882882907</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.980690203158165e-05</v>
+        <v>4.974520702094587e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>2.980690203158165e-05</v>
+        <v>4.974520702094587e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.9131575289626</v>
+        <v>55.98637519400165</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[25.743428144360763, 76.08288691356444]</t>
+          <t>[28.31092925502071, 83.6618211329826]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.000185079666479071</v>
+        <v>0.0001848826455450592</v>
       </c>
       <c r="O3" t="n">
-        <v>0.000185079666479071</v>
+        <v>0.0001848826455450592</v>
       </c>
       <c r="P3" t="n">
-        <v>1.880552959806503</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3145002294299646, 2.446605690183042]</t>
+          <t>[0.798763297309117, 1.9560266571900407]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.928057796225403e-08</v>
+        <v>1.817919099011966e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.928057796225403e-08</v>
+        <v>1.817919099011966e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>55.5529124472872</v>
+        <v>65.37874082442404</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.47637531924923, 69.62944957532517]</t>
+          <t>[49.464111610468784, 81.2933700383793]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.094884431538048e-10</v>
+        <v>1.380282554919177e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>4.094884431538048e-10</v>
+        <v>1.380282554919177e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>16.85885885885908</v>
+        <v>18.59819819819842</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.69129129129149</v>
+        <v>16.40456456456477</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.02642642642668</v>
+        <v>20.79183183183208</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.443281539614816e-06</v>
+        <v>0.01052887087576959</v>
       </c>
       <c r="I4" t="n">
-        <v>1.443281539614816e-06</v>
+        <v>0.01052887087576959</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>72.14891112961305</v>
+        <v>33.4699300720844</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[44.12964868326438, 100.16817357596173]</t>
+          <t>[7.44341700174779, 59.496443142421]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.935592084365226e-06</v>
+        <v>0.01288297190116428</v>
       </c>
       <c r="O4" t="n">
-        <v>4.935592084365226e-06</v>
+        <v>0.01288297190116428</v>
       </c>
       <c r="P4" t="n">
-        <v>1.465447624197041</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0126054398958102, 1.9182898084982716]</t>
+          <t>[0.672973801669885, 2.7107636310254275]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.302956984643004e-08</v>
+        <v>0.001669802814929122</v>
       </c>
       <c r="S4" t="n">
-        <v>5.302956984643004e-08</v>
+        <v>0.001669802814929122</v>
       </c>
       <c r="T4" t="n">
-        <v>66.88581737867972</v>
+        <v>68.04016332972583</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.9425769093872, 83.82905784797224]</t>
+          <t>[53.095426930286436, 82.98489972916522]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.063178682400803e-10</v>
+        <v>7.30748794808278e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>4.063178682400803e-10</v>
+        <v>7.30748794808278e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>18.44840840840865</v>
+        <v>17.40600600600622</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.71435435435458</v>
+        <v>13.54330330330346</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.18246246246273</v>
+        <v>21.26870870870897</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001481038694504111</v>
+        <v>4.388945399114164e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001481038694504111</v>
+        <v>4.388945399114164e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>45.7419787446825</v>
+        <v>52.22754238273862</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[18.671385928420918, 72.81257156094408]</t>
+          <t>[30.08230254342051, 74.37278222205673]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001408302070097456</v>
+        <v>2.10385177774608e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001408302070097456</v>
+        <v>2.10385177774608e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.081816152829272</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4906055233248852, 2.6730267823336584]</t>
+          <t>[0.8490790955648082, 1.8553950606786573]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.438825111449887e-09</v>
+        <v>2.300678604738593e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>7.438825111449887e-09</v>
+        <v>2.300678604738593e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>70.51444883764761</v>
+        <v>63.5637110206349</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[56.49348003965956, 84.53541763563565]</t>
+          <t>[50.64170059319006, 76.48572144807974]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.47277762102749e-13</v>
+        <v>6.954437026251981e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>3.47277762102749e-13</v>
+        <v>6.954437026251981e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>16.08816816816839</v>
+        <v>18.6935735735738</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.82426426426445</v>
+        <v>16.78606606606627</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.35207207207232</v>
+        <v>20.60108108108133</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002403776890409937</v>
+        <v>0.002094836351769214</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002403776890409937</v>
+        <v>0.002094836351769214</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>40.07718086422584</v>
+        <v>46.39067869851031</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[11.739130519945476, 68.4152312085062]</t>
+          <t>[12.549335896045463, 80.23202150097516]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.006600945703075567</v>
+        <v>0.008310283996555201</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006600945703075567</v>
+        <v>0.008310283996555201</v>
       </c>
       <c r="P6" t="n">
-        <v>1.956026657190042</v>
+        <v>2.19502669890458</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.1761317842268095, 2.7359215301532736]</t>
+          <t>[1.515763422452733, 2.874289975356427]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.747936831448143e-06</v>
+        <v>5.475068709515085e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>7.747936831448143e-06</v>
+        <v>5.475068709515085e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>60.65681322393115</v>
+        <v>67.77622916095677</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.296492791080425, 76.01713365678187]</t>
+          <t>[50.269242309441736, 85.28321601247181]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.027951305829447e-10</v>
+        <v>6.808833497018441e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>4.027951305829447e-10</v>
+        <v>6.808833497018441e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>16.56984984985007</v>
+        <v>15.49849849849868</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.58342342342361</v>
+        <v>12.92336336336352</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.55627627627654</v>
+        <v>18.07363363363385</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008876424348425949</v>
+        <v>0.07062667597619643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008876424348425949</v>
+        <v>0.07062667597619643</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>38.53085531658884</v>
+        <v>29.94312934097145</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[9.436609599645351, 67.62510103353233]</t>
+          <t>[-0.9382500137432856, 60.82450869568618]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01058696106330403</v>
+        <v>0.05706632376909515</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01058696106330403</v>
+        <v>0.05706632376909515</v>
       </c>
       <c r="P7" t="n">
-        <v>1.767342413731195</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.7484474990534249, 2.7862373284089657]</t>
+          <t>[0.018868424345884982, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.00108164850391157</v>
+        <v>0.04720694937722469</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00108164850391157</v>
+        <v>0.04720694937722469</v>
       </c>
       <c r="T7" t="n">
-        <v>63.19601008381183</v>
+        <v>58.65405729544084</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.258352708982414, 80.13366745864124]</t>
+          <t>[40.74667405569066, 76.56144053519101]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.768253321543511e-09</v>
+        <v>4.043669443731801e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>1.768253321543511e-09</v>
+        <v>4.043669443731801e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>17.2923723723726</v>
+        <v>18.2643843843846</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.39075075075093</v>
+        <v>12.78030030030045</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.19399399399428</v>
+        <v>23.74846846846875</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002555789258631425</v>
+        <v>7.586829059436084e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002555789258631425</v>
+        <v>7.586829059436084e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.45079795371622</v>
+        <v>52.2275524869377</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[22.696670283644707, 82.20492562378773]</t>
+          <t>[25.229757095754692, 79.22534787812071]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0009145416384501726</v>
+        <v>0.0003215702980716717</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0009145416384501726</v>
+        <v>0.0003215702980716717</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86797401024258</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.2012896833546574, 2.5346583371305034]</t>
+          <t>[1.1509738850989644, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.053617329382917e-06</v>
+        <v>5.149699369155769e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.053617329382917e-06</v>
+        <v>5.149699369155769e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>72.90769150794651</v>
+        <v>57.88974333789273</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[56.19566543995894, 89.61971757593409]</t>
+          <t>[42.64120496307367, 73.1382817127118]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.541522547971908e-11</v>
+        <v>1.133076077408646e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.541522547971908e-11</v>
+        <v>1.133076077408646e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>16.90702702702725</v>
+        <v>17.16756756756777</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.35411411411431</v>
+        <v>14.87855855855874</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.4599399399402</v>
+        <v>19.45657657657681</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.06000000000032</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008478360207880509</v>
+        <v>0.002169458860677764</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008478360207880509</v>
+        <v>0.002169458860677764</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>36.86806211040219</v>
+        <v>49.80888801622937</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[10.343068680225777, 63.39305554057861]</t>
+          <t>[16.181791232327157, 83.43598480013159]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.007513049999859911</v>
+        <v>0.00459369737715698</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007513049999859911</v>
+        <v>0.00459369737715698</v>
       </c>
       <c r="P9" t="n">
-        <v>1.490605523324887</v>
+        <v>1.817658211986886</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 2.4843425388748113]</t>
+          <t>[1.0126054398958075, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.004142907235937354</v>
+        <v>4.080619266555452e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004142907235937354</v>
+        <v>4.080619266555452e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>58.5557642117319</v>
+        <v>60.76205706715773</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.4446932238383, 74.6668351996255]</t>
+          <t>[41.95936596192017, 79.5647481723953]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.421799510405776e-09</v>
+        <v>5.472038155929226e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>3.421799510405776e-09</v>
+        <v>5.472038155929226e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>18.35207207207232</v>
+        <v>16.92912912912934</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.54678678678698</v>
+        <v>13.87711711711728</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.15735735735765</v>
+        <v>19.98114114114139</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.88000000000029</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.026979884523939e-07</v>
+        <v>0.0001233950041436005</v>
       </c>
       <c r="I10" t="n">
-        <v>3.026979884523939e-07</v>
+        <v>0.0001233950041436005</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>62.12718425500763</v>
+        <v>50.84094795859473</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[40.4108260153195, 83.84354249469575]</t>
+          <t>[26.092994058328017, 75.58890185886143]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.033627806851683e-07</v>
+        <v>0.0001515771980584724</v>
       </c>
       <c r="O10" t="n">
-        <v>7.033627806851683e-07</v>
+        <v>0.0001515771980584724</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66671081721981</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 2.0692372032653488]</t>
+          <t>[0.9497106920761933, 2.207605648468503]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.110180836150221e-10</v>
+        <v>7.647787542364171e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>1.110180836150221e-10</v>
+        <v>7.647787542364171e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>64.84678819150049</v>
+        <v>63.2788144336332</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.33799010754187, 78.35558627545912]</t>
+          <t>[47.841237935620164, 78.71639093164623]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.479705247220409e-12</v>
+        <v>1.466862187271545e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>1.479705247220409e-12</v>
+        <v>1.466862187271545e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>17.54546546546568</v>
+        <v>18.104744744745</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.01561561561581</v>
+        <v>15.68432432432455</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.07531531531555</v>
+        <v>20.52516516516546</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.88000000000029</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.516838301619867e-05</v>
+        <v>0.0009356932879253099</v>
       </c>
       <c r="I11" t="n">
-        <v>8.516838301619867e-05</v>
+        <v>0.0009356932879253099</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>56.67997414294188</v>
+        <v>43.369974167191</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[26.589172788786186, 86.77077549709757]</t>
+          <t>[13.493083435050991, 73.24686489933102]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0004401720840117029</v>
+        <v>0.005397746586801588</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004401720840117029</v>
+        <v>0.005397746586801588</v>
       </c>
       <c r="P11" t="n">
-        <v>2.03150035457358</v>
+        <v>2.144710900648889</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.440289725069194, 2.6227109840779654]</t>
+          <t>[1.4906055233248887, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.335536725655118e-08</v>
+        <v>3.949011539994274e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335536725655118e-08</v>
+        <v>3.949011539994274e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>69.34098858077625</v>
+        <v>68.28478611647688</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[52.627932382301054, 86.05404477925146]</t>
+          <t>[52.983978642858624, 83.58559359009513]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.050348696907122e-10</v>
+        <v>1.315014763747513e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>1.050348696907122e-10</v>
+        <v>1.315014763747513e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>16.15903903903924</v>
+        <v>15.92636636636659</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.91207207207224</v>
+        <v>13.40912912912932</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.40600600600623</v>
+        <v>18.44360360360385</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.88000000000029</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>7.735110634787823e-06</v>
+        <v>1.374635207329611e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>7.735110634787823e-06</v>
+        <v>1.374635207329611e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.17317521001116</v>
+        <v>58.55434436872999</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[34.13379308744079, 86.21255733258153]</t>
+          <t>[30.594956730210257, 86.51373200724971]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.88045958924954e-05</v>
+        <v>0.000117558434773235</v>
       </c>
       <c r="O12" t="n">
-        <v>2.88045958924954e-05</v>
+        <v>0.000117558434773235</v>
       </c>
       <c r="P12" t="n">
-        <v>1.742184514603348</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 2.257921446724195]</t>
+          <t>[1.4654476241970409, 2.5220793875665803]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.992856279997568e-08</v>
+        <v>1.321561082789913e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>1.992856279997568e-08</v>
+        <v>1.321561082789913e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>66.07866741677475</v>
+        <v>66.60679867480111</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.7116875583847, 81.44564727516479]</t>
+          <t>[51.078723279080194, 82.13487407052203]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.842548501609144e-11</v>
+        <v>4.122058250288774e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>3.842548501609144e-11</v>
+        <v>4.122058250288774e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>17.25861861861883</v>
+        <v>16.5072672672675</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.29849849849869</v>
+        <v>14.47411411411432</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.21873873873898</v>
+        <v>18.54042042042068</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.88000000000029</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.75058491495162e-05</v>
+        <v>0.0002358780106980207</v>
       </c>
       <c r="I13" t="n">
-        <v>8.75058491495162e-05</v>
+        <v>0.0002358780106980207</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>44.61206575577513</v>
+        <v>48.18760947502812</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[20.6573946650376, 68.56673684651265]</t>
+          <t>[22.90962126618541, 73.46559768387083]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0005014163589183163</v>
+        <v>0.0003828587967149577</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0005014163589183163</v>
+        <v>0.0003828587967149577</v>
       </c>
       <c r="P13" t="n">
-        <v>1.905710858934349</v>
+        <v>1.528342372016656</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3019212798660398, 2.5095004380026573]</t>
+          <t>[0.8616580451287321, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>9.200514750062894e-08</v>
+        <v>3.25123822471074e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>9.200514750062894e-08</v>
+        <v>3.25123822471074e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>43.83313066997</v>
+        <v>72.2979530816632</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[30.660360138930983, 57.00590120100901]</t>
+          <t>[56.99744932379551, 87.59845683953088]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.82234029480577e-08</v>
+        <v>2.395195153326313e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>2.82234029480577e-08</v>
+        <v>2.395195153326313e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>16.63711711711732</v>
+        <v>18.29837837837864</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.34234234234252</v>
+        <v>15.73273273273296</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.93189189189213</v>
+        <v>20.86402402402432</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.88000000000029</v>
+        <v>24.18000000000034</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001989435476664747</v>
+        <v>0.002771265745150964</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001989435476664747</v>
+        <v>0.002771265745150964</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>43.63788963053233</v>
+        <v>47.70962167647524</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[13.686010315436178, 73.58976894562848]</t>
+          <t>[15.554332772882475, 79.864910580068]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.005244394079811476</v>
+        <v>0.004530854460748301</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005244394079811476</v>
+        <v>0.004530854460748301</v>
       </c>
       <c r="P14" t="n">
-        <v>1.918289808498272</v>
+        <v>1.79250031285904</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1635528346628874, 2.6730267823336575]</t>
+          <t>[0.9622896416401163, 2.6227109840779645]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>6.179636126368848e-06</v>
+        <v>7.752473174882368e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>6.179636126368848e-06</v>
+        <v>7.752473174882368e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>66.47958242216373</v>
+        <v>65.53660930255961</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[50.101926769583926, 82.85723807474353]</t>
+          <t>[46.962651653400705, 84.11056695171851]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.916562464288063e-10</v>
+        <v>7.082947783842997e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>1.916562464288063e-10</v>
+        <v>7.082947783842997e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>16.58930930930951</v>
+        <v>17.28180180180205</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.72084084084101</v>
+        <v>14.08684684684705</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.45777777777801</v>
+        <v>20.47675675675704</v>
       </c>
     </row>
   </sheetData>
